--- a/Catalogues/catalogoModeleFormat.EAN13.xlsx
+++ b/Catalogues/catalogoModeleFormat.EAN13.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m312742\Documents\Perso\obg\Catalogues2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m312742\Documents\Perso\obg\Catalogues\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="catalogo Modèle format.EAN13" sheetId="1" r:id="rId1"/>
@@ -553,11 +553,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -603,7 +604,65 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -894,17 +953,18 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -927,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>8050846049154</v>
       </c>
@@ -937,7 +997,7 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
@@ -950,7 +1010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -960,7 +1020,7 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
@@ -975,8 +1035,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:G50000">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>LEFT($B2,15)&lt;&gt;LEFT($B1,15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:E50000">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>LEFT($C2,4)&lt;&gt;LEFT($C1,4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A50000">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(LEFT($A1,1) &lt;&gt; "8",LEFT($A1,1) &lt;&gt; "3", LEFT($A1,1) &lt;&gt; "C")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Catalogues/catalogoModeleFormat.EAN13.xlsx
+++ b/Catalogues/catalogoModeleFormat.EAN13.xlsx
@@ -553,12 +553,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -604,18 +605,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -631,35 +621,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -962,6 +923,7 @@
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="4"/>
+    <col min="5" max="5" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1000,7 +962,7 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
@@ -1023,7 +985,7 @@
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
@@ -1035,17 +997,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:G50000">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>LEFT($B2,15)&lt;&gt;LEFT($B1,15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:E50000">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>LEFT($C2,4)&lt;&gt;LEFT($C1,4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A50000">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(LEFT($A1,1) &lt;&gt; "8",LEFT($A1,1) &lt;&gt; "3", LEFT($A1,1) &lt;&gt; "C")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Catalogues/catalogoModeleFormat.EAN13.xlsx
+++ b/Catalogues/catalogoModeleFormat.EAN13.xlsx
@@ -19,51 +19,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>CodeBarre</t>
   </si>
   <si>
-    <t>OBAGB001-EVS00-002</t>
-  </si>
-  <si>
-    <t>p004-1-01</t>
-  </si>
-  <si>
-    <t>amaranto</t>
-  </si>
-  <si>
-    <t>amaranth</t>
-  </si>
-  <si>
-    <t>O bag winter 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> scocca O bag EVA</t>
-  </si>
-  <si>
-    <t>OBAGB001-EVS00-038</t>
-  </si>
-  <si>
-    <t>p004-1-02</t>
-  </si>
-  <si>
-    <t>grafite</t>
-  </si>
-  <si>
-    <t>graphite</t>
-  </si>
-  <si>
-    <t>OBAGB001-EVS00-463</t>
-  </si>
-  <si>
-    <t>p004-1-03</t>
-  </si>
-  <si>
-    <t>blu maya</t>
-  </si>
-  <si>
-    <t>maya blue</t>
+    <t>OBAGB206-EVS00-486</t>
+  </si>
+  <si>
+    <t>p026-1-10</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>O bag summer '19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> scocca sotto O pocket eva</t>
+  </si>
+  <si>
+    <t>OBAGB206-EVS00-587</t>
+  </si>
+  <si>
+    <t>p026-1-11</t>
+  </si>
+  <si>
+    <t>celery green</t>
+  </si>
+  <si>
+    <t>OBAGB206-EVS00-588</t>
+  </si>
+  <si>
+    <t>p026-1-12</t>
+  </si>
+  <si>
+    <t>orchidea</t>
+  </si>
+  <si>
+    <t>orchid</t>
+  </si>
+  <si>
+    <t>OBAGB206-EVS00-017</t>
+  </si>
+  <si>
+    <t>p027-1-01</t>
+  </si>
+  <si>
+    <t>blu navy</t>
+  </si>
+  <si>
+    <t>navy blue</t>
+  </si>
+  <si>
+    <t>OBAGB206-EVS00-055</t>
+  </si>
+  <si>
+    <t>p027-1-02</t>
+  </si>
+  <si>
+    <t>nero</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>OBAGB206-EVS00-071</t>
+  </si>
+  <si>
+    <t>p027-1-03</t>
+  </si>
+  <si>
+    <t>roccia</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>OBAGB206-EVS00-078</t>
+  </si>
+  <si>
+    <t>p027-1-04</t>
+  </si>
+  <si>
+    <t>sabbia</t>
+  </si>
+  <si>
+    <t>sand</t>
   </si>
 </sst>
 </file>
@@ -605,7 +647,67 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -911,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,75 +1042,167 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>8050846049154</v>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="3">
+        <v>7653210987654</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
-        <v>6</v>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>8765432109876</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:G50000">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>LEFT($B2,15)&lt;&gt;LEFT($B1,15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:E50000">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>LEFT($C2,4)&lt;&gt;LEFT($C1,4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A50000">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(LEFT($A1,1) &lt;&gt; "8",LEFT($A1,1) &lt;&gt; "3", LEFT($A1,1) &lt;&gt; "C")</formula>
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND(NOT(ISBLANK($A1)),LEFT($A1,1) &lt;&gt; "8",LEFT($A1,1) &lt;&gt; "3", LEFT($A1,1) &lt;&gt; "C")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Catalogues/catalogoModeleFormat.EAN13.xlsx
+++ b/Catalogues/catalogoModeleFormat.EAN13.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="catalogo Modèle format.EAN13" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -647,7 +647,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -657,65 +657,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1016,13 +957,13 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="4"/>
     <col min="5" max="5" width="11.42578125" style="5"/>
@@ -1191,17 +1132,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:G50000">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>LEFT($B2,15)&lt;&gt;LEFT($B1,15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:E50000">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>LEFT($C2,4)&lt;&gt;LEFT($C1,4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A50000">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(NOT(ISBLANK($A1)),LEFT($A1,1) &lt;&gt; "8",LEFT($A1,1) &lt;&gt; "3", LEFT($A1,1) &lt;&gt; "C")</formula>
     </cfRule>
   </conditionalFormatting>
